--- a/similarities/split_global/harmonic_similarity_timestamps_162.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_162.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['G', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:05.706000', '0:01:11.624000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:01.323560', '0:00:05.805011')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=65.706</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=1.32356</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['G', 'C', 'G/3', 'A:min7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj', 'F/5', 'C:maj', 'D:min7/b7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:08.260000', '0:00:12.960000'), ('0:00:34.660000', '0:00:36.260000')]</t>
+          <t>('0:00:14.628775', '0:00:27.476822')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:25.040000', '0:00:42.400000'), ('0:00:01.440000', '0:00:06.660000'), ('0:00:49.400000', '0:00:56.760000')]</t>
+          <t>('0:00:10.619000', '0:00:18.817000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=34.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=25.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=49.4']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+          <t>('0:00:30.020000', '0:00:32.440000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:57.824058', '0:01:06.833401')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=30.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Ab:7']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+          <t>('0:01:20.480000', '0:01:37.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:14.910000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=80.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.91</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:13.780000', '0:02:14.740000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.730000', '0:00:17.850000')]</t>
+          <t>('0:00:00.421247', '0:00:03.083177')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:44.820000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:53.240000', '0:01:04.220000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:00.300000', '0:00:03.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=53.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:01:12.980000', '0:01:32.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:40.600000', '0:00:48.700000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=40.6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:03:07.440000', '0:03:10.020000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:42.394399', '0:00:50.173083')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min/4', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:min/F', 'A:maj/E', 'D:min/F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000'), ('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:31.785035', '0:00:36.150690')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:13.900000'), ('0:00:01.600000', '0:00:11.260000')]</t>
+          <t>('0:01:12.400000', '0:01:14.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=31.785035</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=72.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
